--- a/ServiceNow DCF 10-26-22.xlsx
+++ b/ServiceNow DCF 10-26-22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1432DFF9-2824-D946-9FBC-31E885435EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18578369-4F97-654F-AEBA-671B59A6F936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23480" yWindow="460" windowWidth="27500" windowHeight="26980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5280" yWindow="460" windowWidth="27500" windowHeight="26980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="136">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -438,6 +438,9 @@
   </si>
   <si>
     <t>Upside / Downside</t>
+  </si>
+  <si>
+    <t>Present Value of Future Cash Flows</t>
   </si>
 </sst>
 </file>
@@ -650,7 +653,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -767,6 +770,9 @@
     </xf>
     <xf numFmtId="9" fontId="15" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1086,10 +1092,10 @@
   <dimension ref="A1:AF112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q72" sqref="Q72"/>
+      <selection pane="bottomRight" activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1212,7 +1218,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -2532,7 +2538,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="40" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>24</v>
       </c>
@@ -2789,7 +2795,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="40" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>29</v>
       </c>
@@ -3361,7 +3367,7 @@
       <c r="U42" s="32"/>
       <c r="V42" s="32"/>
     </row>
-    <row r="43" spans="1:22" ht="40" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" ht="20" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>39</v>
       </c>
@@ -6426,6 +6432,9 @@
       <c r="AF100" s="18"/>
     </row>
     <row r="101" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+      <c r="A101" s="57" t="s">
+        <v>135</v>
+      </c>
       <c r="Q101" s="1">
         <f>Q99/(1+$U$55)^Q98</f>
         <v>2069928891.2494185</v>
@@ -6504,7 +6513,7 @@
       <c r="P110" s="52"/>
       <c r="Q110" s="53"/>
     </row>
-    <row r="111" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="P111" s="54" t="s">
         <v>133</v>
       </c>
@@ -6513,7 +6522,7 @@
         <v>SELL</v>
       </c>
     </row>
-    <row r="112" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="P112" s="54" t="s">
         <v>134</v>
       </c>
